--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02436404-F22F-4E89-A625-C829A16EF1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF895E2-9BF3-439D-A60B-87B4BA007DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>contractPartyId</t>
   </si>
@@ -171,9 +171,6 @@
     <t>rfg2-1p930-4sa</t>
   </si>
   <si>
-    <t>2023-09-01</t>
-  </si>
-  <si>
     <t>2023-12-31</t>
   </si>
   <si>
@@ -237,7 +234,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -611,10 +608,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -623,50 +620,49 @@
     <col min="2" max="2" width="9.88671875" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5546875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="13" width="10.44140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.77734375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
-    <col min="36" max="37" width="9" style="1" customWidth="1"/>
-    <col min="38" max="38" width="10" style="1" customWidth="1"/>
-    <col min="39" max="39" width="12.77734375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="14.44140625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="17.21875" style="1" customWidth="1"/>
-    <col min="43" max="43" width="18.44140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10.21875" style="1" customWidth="1"/>
-    <col min="45" max="45" width="8.77734375" style="1" customWidth="1"/>
-    <col min="46" max="50" width="2.6640625" style="1"/>
-    <col min="52" max="16384" width="2.6640625" style="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.44140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="22" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.44140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.88671875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.5546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.109375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.44140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14.109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="11.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="8.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="8.77734375" style="1" customWidth="1"/>
+    <col min="35" max="36" width="9" style="1" customWidth="1"/>
+    <col min="37" max="37" width="10" style="1" customWidth="1"/>
+    <col min="38" max="38" width="12.77734375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="14.44140625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.6640625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.21875" style="1" customWidth="1"/>
+    <col min="42" max="42" width="18.44140625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="10.21875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="8.77734375" style="1" customWidth="1"/>
+    <col min="45" max="49" width="2.6640625" style="1"/>
+    <col min="51" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -683,132 +679,129 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
       <c r="AV1" s="2"/>
       <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -822,29 +815,29 @@
         <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="M2" s="2" t="s">
         <v>51</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>53</v>
@@ -856,13 +849,13 @@
         <v>55</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="V2" s="2" t="s">
         <v>57</v>
@@ -873,14 +866,14 @@
       <c r="X2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="Y2" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
+      <c r="AD2" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="AE2" s="2" t="s">
         <v>61</v>
       </c>
@@ -894,38 +887,35 @@
         <v>64</v>
       </c>
       <c r="AI2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AM2" s="4" t="s">
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="AQ2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AR2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>69</v>
-      </c>
+      <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
       <c r="AW2" s="2"/>
-      <c r="AX2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF895E2-9BF3-439D-A60B-87B4BA007DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAAC21C-FAB9-4A3E-BCFE-4F4DEE99F755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2376" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>contractPartyId</t>
   </si>
@@ -45,9 +45,6 @@
     <t>expireDate</t>
   </si>
   <si>
-    <t>receiveDate</t>
-  </si>
-  <si>
     <t>sendFormType</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
   </si>
   <si>
     <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>effectiveDate</t>
   </si>
 </sst>
 </file>
@@ -611,7 +611,7 @@
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,118 +682,118 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
@@ -803,68 +803,70 @@
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
@@ -872,44 +874,44 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AL2" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AP2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAAC21C-FAB9-4A3E-BCFE-4F4DEE99F755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2117389-30AB-4518-AB87-971F921AA75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -231,10 +231,10 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-10-01</t>
-  </si>
-  <si>
     <t>effectiveDate</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
   </si>
 </sst>
 </file>
@@ -682,7 +682,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -815,7 +815,7 @@
         <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>47</v>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2117389-30AB-4518-AB87-971F921AA75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD408C4E-8535-4E09-A851-ADE18E69AC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>contractPartyId</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>2023-10-16</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
   <dimension ref="A1:AX2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,7 +902,7 @@
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="3" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AO2" s="2" t="s">
         <v>50</v>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD408C4E-8535-4E09-A851-ADE18E69AC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07B08A1-B9E6-4F00-AF50-76784F22558D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,10 +234,10 @@
     <t>effectiveDate</t>
   </si>
   <si>
-    <t>2023-10-16</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -818,7 +818,7 @@
         <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>47</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AO2" s="2" t="s">
         <v>50</v>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07B08A1-B9E6-4F00-AF50-76784F22558D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABC5A93-FFEC-4AEB-AE00-7D36FDC8A11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -617,55 +617,54 @@
       <selection activeCell="AN2" sqref="AN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.44140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" style="1" customWidth="1"/>
     <col min="20" max="20" width="22" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.109375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.88671875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.88671875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="4.5546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="10.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.44140625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="14.109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="11.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="8.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.77734375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="12.28515625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14.140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="11.7109375" style="1" customWidth="1"/>
+    <col min="33" max="34" width="8.7109375" style="1" customWidth="1"/>
     <col min="35" max="36" width="9" style="1" customWidth="1"/>
     <col min="37" max="37" width="10" style="1" customWidth="1"/>
-    <col min="38" max="38" width="12.77734375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="14.44140625" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.6640625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="17.21875" style="1" customWidth="1"/>
-    <col min="42" max="42" width="18.44140625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="10.21875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="8.77734375" style="1" customWidth="1"/>
-    <col min="45" max="49" width="2.6640625" style="1"/>
-    <col min="51" max="16384" width="2.6640625" style="1"/>
+    <col min="38" max="38" width="12.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="14.42578125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="11.7109375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="17.28515625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="18.42578125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="10.28515625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="8.7109375" style="1" customWidth="1"/>
+    <col min="45" max="49" width="2.7109375" style="1"/>
+    <col min="51" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -804,7 +803,7 @@
       <c r="AV1" s="2"/>
       <c r="AW1" s="2"/>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABC5A93-FFEC-4AEB-AE00-7D36FDC8A11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BD90DA-75FD-49A2-96BA-728F1A4D456C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2835" yWindow="2010" windowWidth="11925" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BD90DA-75FD-49A2-96BA-728F1A4D456C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0416EAD-DAFE-4F74-A591-C5ADEC512FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2760" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-01-16</t>
   </si>
 </sst>
 </file>
@@ -314,9 +314,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -354,7 +354,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -460,7 +460,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,7 +602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399F4D96-5A88-42EC-B4C7-5F481DB7FCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0150F088-3F83-44EA-A2F5-8C51475FDC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>contractPartyId</t>
   </si>
@@ -219,9 +219,6 @@
     <t>หลักประกัน</t>
   </si>
   <si>
-    <t>[|บริษัท|ทดสอบ|อัตโนมัติ|0|O]</t>
-  </si>
-  <si>
     <t>U0105556078229000</t>
   </si>
   <si>
@@ -234,10 +231,10 @@
     <t/>
   </si>
   <si>
-    <t>2024-02-01</t>
-  </si>
-  <si>
-    <t>2024-02-16</t>
+    <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -314,9 +311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -354,7 +351,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -460,7 +457,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -602,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -611,10 +608,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AX2"/>
+  <dimension ref="A1:AW2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN2" sqref="AN2"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,47 +621,46 @@
     <col min="3" max="3" width="8.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.42578125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="22" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.42578125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="13.85546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="4.5703125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="14.140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="11.7109375" style="1" customWidth="1"/>
-    <col min="33" max="34" width="8.7109375" style="1" customWidth="1"/>
-    <col min="35" max="36" width="9" style="1" customWidth="1"/>
-    <col min="37" max="37" width="10" style="1" customWidth="1"/>
-    <col min="38" max="38" width="12.7109375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="14.42578125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="11.7109375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="17.28515625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="18.42578125" style="1" customWidth="1"/>
-    <col min="43" max="43" width="10.28515625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="8.7109375" style="1" customWidth="1"/>
-    <col min="45" max="49" width="2.7109375" style="1"/>
-    <col min="51" max="16384" width="2.7109375" style="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="1" customWidth="1"/>
+    <col min="10" max="11" width="10.42578125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="20.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="22" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="7.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="6.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5703125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="8.140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="12.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="14.140625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" style="1" customWidth="1"/>
+    <col min="32" max="33" width="8.7109375" style="1" customWidth="1"/>
+    <col min="34" max="35" width="9" style="1" customWidth="1"/>
+    <col min="36" max="36" width="10" style="1" customWidth="1"/>
+    <col min="37" max="37" width="12.7109375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="14.42578125" style="1" customWidth="1"/>
+    <col min="39" max="39" width="11.7109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="17.28515625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="18.42578125" style="1" customWidth="1"/>
+    <col min="42" max="42" width="10.28515625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="8.7109375" style="1" customWidth="1"/>
+    <col min="44" max="48" width="2.7109375" style="1"/>
+    <col min="50" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -681,129 +677,126 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR1" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="AR1" s="2"/>
       <c r="AS1" s="2"/>
       <c r="AT1" s="2"/>
       <c r="AU1" s="2"/>
       <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>42</v>
       </c>
@@ -820,106 +813,103 @@
         <v>69</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="T2" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
+      <c r="AC2" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="AD2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="AI2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AQ2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="AR2" s="2"/>
       <c r="AS2" s="2"/>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>
       <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0150F088-3F83-44EA-A2F5-8C51475FDC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED82CE8-5C7A-41BA-BCF5-6D83A8662972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
+++ b/Data Files/Input Validation/16. contractpartyid/Auto_ContractPartyID_C10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED82CE8-5C7A-41BA-BCF5-6D83A8662972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3487A481-714E-4E9B-9789-538C53F50C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
     <t>[|บริษัท|ทดสอบ|อัตโนมัติ||]</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
